--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8370" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16660" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="test2" sheetId="2" r:id="rId2"/>
+    <sheet name="test3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="test" localSheetId="0">工作表1!$A$1:$CV$200</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="test.csv" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="1" name="test.csv" type="6" refreshedVersion="2" background="1" saveData="1">
     <textPr sourceFile="Macintosh HD:Users:Quenton:test.csv" tab="0" comma="1">
       <textFields>
         <textField/>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20005" uniqueCount="20005">
   <si>
     <t>cell-1-1</t>
   </si>
@@ -60036,19 +60042,25 @@
   </si>
   <si>
     <t>abc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D列是null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D列是空白字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -60056,7 +60068,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -60078,23 +60090,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -60105,124 +60102,16 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+  <cellStyles count="1">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="test" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="101">
-    <queryTableFields count="100">
-      <queryTableField id="1"/>
-      <queryTableField id="2"/>
-      <queryTableField id="3"/>
-      <queryTableField id="4"/>
-      <queryTableField id="5"/>
-      <queryTableField id="6"/>
-      <queryTableField id="7"/>
-      <queryTableField id="8"/>
-      <queryTableField id="9"/>
-      <queryTableField id="10"/>
-      <queryTableField id="11"/>
-      <queryTableField id="12"/>
-      <queryTableField id="13"/>
-      <queryTableField id="14"/>
-      <queryTableField id="15"/>
-      <queryTableField id="16"/>
-      <queryTableField id="17"/>
-      <queryTableField id="18"/>
-      <queryTableField id="19"/>
-      <queryTableField id="20"/>
-      <queryTableField id="21"/>
-      <queryTableField id="22"/>
-      <queryTableField id="23"/>
-      <queryTableField id="24"/>
-      <queryTableField id="25"/>
-      <queryTableField id="26"/>
-      <queryTableField id="27"/>
-      <queryTableField id="28"/>
-      <queryTableField id="29"/>
-      <queryTableField id="30"/>
-      <queryTableField id="31"/>
-      <queryTableField id="32"/>
-      <queryTableField id="33"/>
-      <queryTableField id="34"/>
-      <queryTableField id="35"/>
-      <queryTableField id="36"/>
-      <queryTableField id="37"/>
-      <queryTableField id="38"/>
-      <queryTableField id="39"/>
-      <queryTableField id="40"/>
-      <queryTableField id="41"/>
-      <queryTableField id="42"/>
-      <queryTableField id="43"/>
-      <queryTableField id="44"/>
-      <queryTableField id="45"/>
-      <queryTableField id="46"/>
-      <queryTableField id="47"/>
-      <queryTableField id="48"/>
-      <queryTableField id="49"/>
-      <queryTableField id="50"/>
-      <queryTableField id="51"/>
-      <queryTableField id="52"/>
-      <queryTableField id="53"/>
-      <queryTableField id="54"/>
-      <queryTableField id="55"/>
-      <queryTableField id="56"/>
-      <queryTableField id="57"/>
-      <queryTableField id="58"/>
-      <queryTableField id="59"/>
-      <queryTableField id="60"/>
-      <queryTableField id="61"/>
-      <queryTableField id="62"/>
-      <queryTableField id="63"/>
-      <queryTableField id="64"/>
-      <queryTableField id="65"/>
-      <queryTableField id="66"/>
-      <queryTableField id="67"/>
-      <queryTableField id="68"/>
-      <queryTableField id="69"/>
-      <queryTableField id="70"/>
-      <queryTableField id="71"/>
-      <queryTableField id="72"/>
-      <queryTableField id="73"/>
-      <queryTableField id="74"/>
-      <queryTableField id="75"/>
-      <queryTableField id="76"/>
-      <queryTableField id="77"/>
-      <queryTableField id="78"/>
-      <queryTableField id="79"/>
-      <queryTableField id="80"/>
-      <queryTableField id="81"/>
-      <queryTableField id="82"/>
-      <queryTableField id="83"/>
-      <queryTableField id="84"/>
-      <queryTableField id="85"/>
-      <queryTableField id="86"/>
-      <queryTableField id="87"/>
-      <queryTableField id="88"/>
-      <queryTableField id="89"/>
-      <queryTableField id="90"/>
-      <queryTableField id="91"/>
-      <queryTableField id="92"/>
-      <queryTableField id="93"/>
-      <queryTableField id="94"/>
-      <queryTableField id="95"/>
-      <queryTableField id="96"/>
-      <queryTableField id="97"/>
-      <queryTableField id="98"/>
-      <queryTableField id="99"/>
-      <queryTableField id="100"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="test" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -60520,6 +60409,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -60559,15 +60449,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="9" width="11.5" customWidth="1"/>
     <col min="10" max="99" width="12.5" customWidth="1"/>
@@ -120975,25 +120862,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="20.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -121021,11 +120912,77 @@
         <v>0.8125</v>
       </c>
       <c r="D2" s="4">
-        <v>42278.4166666667</v>
+        <v>42278.416666666701</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>20003</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>20004</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20002</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>